--- a/TA 2/Code/Hasil Klasifikasi/xlsx/hasil_567.xlsx
+++ b/TA 2/Code/Hasil Klasifikasi/xlsx/hasil_567.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18195" windowHeight="10560"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,13 +360,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -374,13 +374,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -388,13 +388,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -402,13 +402,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -416,13 +416,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -430,13 +430,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -444,13 +444,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -458,10 +458,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -472,13 +472,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -486,13 +486,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -500,13 +500,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -514,13 +514,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -584,13 +584,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -738,30 +738,30 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
         <v>8</v>
       </c>
-      <c r="B29">
-        <v>19</v>
-      </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>29.629629629629626</v>
+        <v>70.370370370370367</v>
       </c>
     </row>
   </sheetData>
